--- a/src/main/resources/table.xlsx
+++ b/src/main/resources/table.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -67,6 +67,30 @@
   </si>
   <si>
     <t>{"location":{"name":"Sofia","region":"Grad Sofiya","country":"Bulgaria","lat":42.68,"lon":23.32,"tz_id":"Europe/Sofia","localtime_epoch":1657368416,"localtime":"2022-07-09 15:06"},"astronomy":{"astro":{"sunrise":"05:50 AM","sunset":"09:02 PM","moonrise":"11:49 AM","moonset":"01:38 AM","moon_phase":"Waxing Crescent","moon_illumination":"46"}}}</t>
+  </si>
+  <si>
+    <t>(Sat, 09 Jul 2022 16:02:56 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Sofia","region":"Grad Sofiya","country":"Bulgaria","lat":42.68,"lon":23.32,"tz_id":"Europe/Sofia","localtime_epoch":1657382576,"localtime":"2022-07-09 19:02"},"current":{"last_updated_epoch":1657378800,"last_updated":"2022-07-09 18:00","temp_c":19.0,"temp_f":66.2,"is_day":1,"condition":{"text":"Partly cloudy","icon":"//cdn.weatherapi.com/weather/64x64/day/116.png","code":1003},"wind_mph":10.5,"wind_kph":16.9,"wind_degree":290,"wind_dir":"WNW","pressure_mb":1015.0,"pressure_in":29.97,"precip_mm":0.1,"precip_in":0.0,"humidity":78,"cloud":75,"feelslike_c":19.0,"feelslike_f":66.2,"vis_km":10.0,"vis_miles":6.0,"uv":4.0,"gust_mph":4.7,"gust_kph":7.6}}</t>
+  </si>
+  <si>
+    <t>(Sat, 09 Jul 2022 16:03:29 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Wuwu","region":"Morobe","country":"Papua New Guinea","lat":-7.95,"lon":147.75,"tz_id":"Pacific/Port_Moresby","localtime_epoch":1657382609,"localtime":"2022-07-10 2:03"},"current":{"last_updated_epoch":1657378800,"last_updated":"2022-07-10 01:00","temp_c":24.4,"temp_f":75.9,"is_day":0,"condition":{"text":"Patchy rain possible","icon":"//cdn.weatherapi.com/weather/64x64/night/176.png","code":1063},"wind_mph":4.5,"wind_kph":7.2,"wind_degree":210,"wind_dir":"SSW","pressure_mb":1011.0,"pressure_in":29.85,"precip_mm":1.1,"precip_in":0.04,"humidity":87,"cloud":70,"feelslike_c":26.7,"feelslike_f":80.1,"vis_km":9.0,"vis_miles":5.0,"uv":1.0,"gust_mph":7.2,"gust_kph":11.5}}</t>
+  </si>
+  <si>
+    <t>(Sat, 09 Jul 2022 16:05:05 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Awassa Airport","region":"Awasa","country":"Ethiopia","lat":7.07,"lon":38.5,"tz_id":"Africa/Addis_Ababa","localtime_epoch":1657382705,"localtime":"2022-07-09 19:05"},"current":{"last_updated_epoch":1657378800,"last_updated":"2022-07-09 18:00","temp_c":18.7,"temp_f":65.7,"is_day":0,"condition":{"text":"Patchy rain possible","icon":"//cdn.weatherapi.com/weather/64x64/night/176.png","code":1063},"wind_mph":14.1,"wind_kph":22.7,"wind_degree":221,"wind_dir":"SW","pressure_mb":1013.0,"pressure_in":29.92,"precip_mm":0.2,"precip_in":0.01,"humidity":62,"cloud":77,"feelslike_c":18.7,"feelslike_f":65.7,"vis_km":9.0,"vis_miles":5.0,"uv":4.0,"gust_mph":19.9,"gust_kph":32.0}}</t>
+  </si>
+  <si>
+    <t>(Sat, 09 Jul 2022 16:17:42 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Sofia","region":"Grad Sofiya","country":"Bulgaria","lat":42.68,"lon":23.32,"tz_id":"Europe/Sofia","localtime_epoch":1657383462,"localtime":"2022-07-09 19:17"},"current":{"last_updated_epoch":1657383300,"last_updated":"2022-07-09 19:15","temp_c":19.0,"temp_f":66.2,"is_day":1,"condition":{"text":"Partly cloudy","icon":"//cdn.weatherapi.com/weather/64x64/day/116.png","code":1003},"wind_mph":10.5,"wind_kph":16.9,"wind_degree":290,"wind_dir":"WNW","pressure_mb":1015.0,"pressure_in":29.97,"precip_mm":0.3,"precip_in":0.01,"humidity":78,"cloud":75,"feelslike_c":19.0,"feelslike_f":66.2,"vis_km":10.0,"vis_miles":6.0,"uv":4.0,"gust_mph":6.7,"gust_kph":10.8}}</t>
   </si>
 </sst>
 </file>
@@ -397,7 +421,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,6 +456,62 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>
